--- a/Factibilidades.xlsx
+++ b/Factibilidades.xlsx
@@ -41,9 +41,6 @@
     <t>Hardware</t>
   </si>
   <si>
-    <t>LENOVO IDEACENTRE 3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Procesador Athlon AMD 3050U 2.4GHz</t>
   </si>
   <si>
@@ -77,7 +74,10 @@
     <t xml:space="preserve"> - Multifunsión</t>
   </si>
   <si>
-    <t>Lenovo IdeaCenter 3</t>
+    <t xml:space="preserve">5 LENOVO IDEACENTRE 3 </t>
+  </si>
+  <si>
+    <t>5 Lenovo IdeaCenter 3</t>
   </si>
 </sst>
 </file>
@@ -280,71 +280,71 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +629,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G1" sqref="G1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,10 +648,10 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -660,15 +660,15 @@
       <c r="B2" s="3">
         <v>4995</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -677,134 +677,140 @@
       <c r="B3" s="3">
         <v>20990</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>66990</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>459990</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>2299950</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="20" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="G2:H9"/>
+    <mergeCell ref="I2:K3"/>
+    <mergeCell ref="I4:K5"/>
     <mergeCell ref="I16:K17"/>
     <mergeCell ref="I6:K7"/>
     <mergeCell ref="I8:K9"/>
@@ -812,12 +818,6 @@
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="G2:H9"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
